--- a/src/dataEngine/dataEngine.xlsx
+++ b/src/dataEngine/dataEngine.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>TestCase_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,12 +64,104 @@
   <si>
     <t>openUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page_Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_VeifyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,21 +501,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,12 +527,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -447,11 +546,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -461,8 +563,64 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -473,12 +631,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
